--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -40,13 +40,13 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Build_a_Highly_Efficient_Organization,Explore_New_Ways_to_Reduce_cost,KPI_tracking_&amp;_management,Volume_Target,Stock_Management,Channel_Analysis,Market_Entry_Cadence,Operational_Efficiency_benchmarking</t>
-  </si>
-  <si>
-    <t>Develop_NIO_Infrastructure,Develop_New_Users_and_Communities,Explore_New_Strategies_and_Business_Models,Rolling_Plan,Volume_Target,KPI_tracking_&amp;_management,Market_Intelligence_&amp;_Analysisi,Market_Insights,Stock_Management,Channel_Analysis,Market_Entry_Cadence</t>
-  </si>
-  <si>
-    <t>Provide_Experience_Beyond_Expectations,UserInsights</t>
+    <t>Build_a_Highly_Efficient_Organization,Explore_New_Ways_to_Reduce_cost,KPI_tracking_&amp;_management,Volume_Target,Stock_Management,Channel_Analysis_,Market_Entry_Cadence,Operational_Efficiency_benchmarking</t>
+  </si>
+  <si>
+    <t>Develop_NIO_Infrastructure,Develop_New_Users_and_Communities,Explore_New_Strategies_and_Business_Models,Rolling_Plan,Volume_Target,KPI_tracking_&amp;_management,Market_Intelligence_&amp;_Analysisi,Market_Insights,Stock_Management,Channel_Analysis_,Market_Entry_Cadence</t>
+  </si>
+  <si>
+    <t>Provide_Experience_Beyond_Expectations,User_Insights</t>
   </si>
   <si>
     <t>Christian Sieling,Tristan VONBALLUSECK,Zoey LI,Caesar QIAN</t>

--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Strategy</t>
   </si>
@@ -40,13 +40,10 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Build_a_Highly_Efficient_Organization,Explore_New_Ways_to_Reduce_cost,KPI_tracking_&amp;_management,Volume_Target,Stock_Management,Channel_Analysis_,Market_Entry_Cadence,Operational_Efficiency_benchmarking</t>
-  </si>
-  <si>
-    <t>Develop_NIO_Infrastructure,Develop_New_Users_and_Communities,Explore_New_Strategies_and_Business_Models,Rolling_Plan,Volume_Target,KPI_tracking_&amp;_management,Market_Intelligence_&amp;_Analysisi,Market_Insights,Stock_Management,Channel_Analysis_,Market_Entry_Cadence</t>
-  </si>
-  <si>
-    <t>Provide_Experience_Beyond_Expectations,User_Insights</t>
+    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PE-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_Development,COE-HR-Organization_Development,COE-HR-Recruiting,COE-HR-Salary_Management,COE-HR-SSC_Management,COE-PE-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PE-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning</t>
+  </si>
+  <si>
+    <t>EB-Community-NIO_Point_&amp;_Value,EB-Satisfaction-Satisfaction_Operation,EB-Satisfaction-SCR,EB-Community-Community_Development,EB-Community-Community_Events,EB-Community-Referral_Development,EB-ND-Design_Management,EB-ND-Construction_Management,EB-ND-NIO_House_Operation</t>
   </si>
   <si>
     <t>Christian Sieling,Tristan VONBALLUSECK,Zoey LI,Caesar QIAN</t>
@@ -437,11 +434,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -455,10 +449,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -472,10 +466,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -40,7 +40,7 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PE-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_Development,COE-HR-Organization_Development,COE-HR-Recruiting,COE-HR-Salary_Management,COE-HR-SSC_Management,COE-PE-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PE-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning</t>
+    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PE-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PE-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PE-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning</t>
   </si>
   <si>
     <t>EB-Community-NIO_Point_&amp;_Value,EB-Satisfaction-Satisfaction_Operation,EB-Satisfaction-SCR,EB-Community-Community_Development,EB-Community-Community_Events,EB-Community-Referral_Development,EB-ND-Design_Management,EB-ND-Construction_Management,EB-ND-NIO_House_Operation</t>

--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -37,10 +37,10 @@
     <t>Achieve_Satisfaction_Target</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PE-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PE-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PE-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning</t>
+    <t>Click Me</t>
+  </si>
+  <si>
+    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PD-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy</t>
   </si>
   <si>
     <t>EB-Community-NIO_Point_&amp;_Value,EB-Satisfaction-Satisfaction_Operation,EB-Satisfaction-SCR,EB-Community-Community_Development,EB-Community-Community_Events,EB-Community-Referral_Development,EB-ND-Design_Management,EB-ND-Construction_Management,EB-ND-NIO_House_Operation</t>

--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -40,7 +40,7 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics_,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PD-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy</t>
+    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics ,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PD-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy</t>
   </si>
   <si>
     <t>EB-Community-NIO_Point_&amp;_Value,EB-Satisfaction-Satisfaction_Operation,EB-Satisfaction-SCR,EB-Community-Community_Development,EB-Community-Community_Events,EB-Community-Referral_Development,EB-ND-Design_Management,EB-ND-Construction_Management,EB-ND-NIO_House_Operation</t>

--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -40,7 +40,7 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics ,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PD-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication,EB-UD-Events,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy</t>
+    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics ,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PD-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication_&amp;_Event,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy</t>
   </si>
   <si>
     <t>EB-Community-NIO_Point_&amp;_Value,EB-Satisfaction-Satisfaction_Operation,EB-Satisfaction-SCR,EB-Community-Community_Development,EB-Community-Community_Events,EB-Community-Referral_Development,EB-ND-Design_Management,EB-ND-Construction_Management,EB-ND-NIO_House_Operation</t>

--- a/helper/Strategy.xlsx
+++ b/helper/Strategy.xlsx
@@ -40,7 +40,7 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics ,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,COE-PD-Vehicle_Quality,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication_&amp;_Event,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy</t>
+    <t>EB-UO-2B_Business_Product,EB-UO-LOTD_Operation,EB-UO-Subscription_Product_&amp;_management,EB-ND-Network_Development,EB-Enabling-Market_Planning,EB-Enabling-Project_Management,EB-Enabling-Training,COE-HR-EHS,EB-SO-Service_Planning,EB-SO-Service_Operation,EB-SO-Service_Parts_&amp;_Logistics ,EB-UO-Business_Intelligence,EB-Community-IP_Management,EB-BD-GR,COE-Finance-Tax,COE-Finance-Accounting,COE-PD-Product_Planning,COE-Purchase-Vendor_Management,COE-Purchase-Purchase_Operation,COE-HR-Culture_and_Internal_Communications,COE-HR-Organization_Development,COE-HR-Talent_Aquisition,COE-HR-Total_Rewards,COE-PD-Product_Experience,COE-NIO_Life-NIO_Life_Operation,COE-NIO_Life-NIO_Life_Product_Launch,COE-Power-Power_Operation,COE-Power-R_&amp;_M,COE-Legal-EU_Legal,COE-Digital-Digital_Product_Planning,COE-Digital-Digital_Product_Design,COE-Digital-Digital_Product_Launch,EB-UO-Commercial_Product,EB-BD-Retail_Financing,EB-BD-LeaseCo_Development,COE-Digital-Digital_System_Operation,COE-Finance-Finance_Admin,COE-Finance-Finance_Planning,COE-Power-Battery_&amp;_Safety,COE-Power-Market_Management,COE-Finance-Controling,EB-UD-PR,EB-UD-Communication_&amp;_Event,EB-UO-Sales_Planning,EB-UO-Production_and_Order_Planning,EB-UO-Fleet_Planning,COE-HR-Learning_Development,COE-HR-HRBP_HQ,EB-HR-HRBP_HQ,EB-HR-HRBP_Country,COE-HR_Employee_Experience_and_Delivery,COE-Power-LTO,EB-UO-Partner_Strategy,COE-PD-Vehicle_Quality,COE-PD-Product_Marketing</t>
   </si>
   <si>
     <t>EB-Community-NIO_Point_&amp;_Value,EB-Satisfaction-Satisfaction_Operation,EB-Satisfaction-SCR,EB-Community-Community_Development,EB-Community-Community_Events,EB-Community-Referral_Development,EB-ND-Design_Management,EB-ND-Construction_Management,EB-ND-NIO_House_Operation</t>
